--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73dc9f36c6aec38/Documents/AdamFolder/Classes/ECE 4772/ECE-4772-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F54BE0343630921FD2FE31D2F8F2D3C234D826F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9485369-47CF-4DFA-88DA-CFBB13803A1E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_277503FFF613C896C9287C86D1B1C59874522E1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F70D99-2363-424B-87AB-D488926B33D7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21555" yWindow="3255" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Test Number</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Elapsed time</t>
   </si>
   <si>
-    <t>./Final_seq</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -65,6 +62,99 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>./Final_tbb</t>
+  </si>
+  <si>
+    <t>20/1</t>
+  </si>
+  <si>
+    <t>20/2</t>
+  </si>
+  <si>
+    <t>20/3</t>
+  </si>
+  <si>
+    <t>20/4</t>
+  </si>
+  <si>
+    <t>20/5</t>
+  </si>
+  <si>
+    <t>20/6</t>
+  </si>
+  <si>
+    <t>20/7</t>
+  </si>
+  <si>
+    <t>20/8</t>
+  </si>
+  <si>
+    <t>20/9</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <t>50/1</t>
+  </si>
+  <si>
+    <t>50/2</t>
+  </si>
+  <si>
+    <t>50/3</t>
+  </si>
+  <si>
+    <t>50/4</t>
+  </si>
+  <si>
+    <t>50/5</t>
+  </si>
+  <si>
+    <t>50/6</t>
+  </si>
+  <si>
+    <t>50/7</t>
+  </si>
+  <si>
+    <t>50/8</t>
+  </si>
+  <si>
+    <t>50/9</t>
+  </si>
+  <si>
+    <t>50/10</t>
   </si>
 </sst>
 </file>
@@ -432,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +533,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,143 +551,283 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>41966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>35039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>7639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>37393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>11746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>35012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>15770</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>33910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>19428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>35762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>23947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>34254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>28173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>34106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>32198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>34375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>35741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>34794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>38947</v>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>96001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>90204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>89397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>87202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>86452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>83834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>84872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>86780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>86700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>90425</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73dc9f36c6aec38/Documents/AdamFolder/Classes/ECE 4772/ECE-4772-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_277503FFF613C896C9287C86D1B1C59874522E1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F70D99-2363-424B-87AB-D488926B33D7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_23F921ED727B0819792C4C8F2DF6301E7C486F5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EB8A007-1BD2-417A-AC39-FF2C01EF49C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="246">
   <si>
     <t>Test Number</t>
   </si>
@@ -94,7 +94,610 @@
     <t>20</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>./Final_seq</t>
+  </si>
+  <si>
     <t>./Final_tbb</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>2/1</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>4/1</t>
+  </si>
+  <si>
+    <t>4/2</t>
+  </si>
+  <si>
+    <t>4/3</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>5/1</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>5/3</t>
+  </si>
+  <si>
+    <t>5/4</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>5/8</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>6/3</t>
+  </si>
+  <si>
+    <t>6/4</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>6/7</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t>7/1</t>
+  </si>
+  <si>
+    <t>7/2</t>
+  </si>
+  <si>
+    <t>7/3</t>
+  </si>
+  <si>
+    <t>7/4</t>
+  </si>
+  <si>
+    <t>7/5</t>
+  </si>
+  <si>
+    <t>7/6</t>
+  </si>
+  <si>
+    <t>7/7</t>
+  </si>
+  <si>
+    <t>7/8</t>
+  </si>
+  <si>
+    <t>7/9</t>
+  </si>
+  <si>
+    <t>7/10</t>
+  </si>
+  <si>
+    <t>8/1</t>
+  </si>
+  <si>
+    <t>8/2</t>
+  </si>
+  <si>
+    <t>8/3</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <t>8/5</t>
+  </si>
+  <si>
+    <t>8/6</t>
+  </si>
+  <si>
+    <t>8/7</t>
+  </si>
+  <si>
+    <t>8/8</t>
+  </si>
+  <si>
+    <t>8/9</t>
+  </si>
+  <si>
+    <t>8/10</t>
+  </si>
+  <si>
+    <t>9/1</t>
+  </si>
+  <si>
+    <t>9/2</t>
+  </si>
+  <si>
+    <t>9/3</t>
+  </si>
+  <si>
+    <t>9/4</t>
+  </si>
+  <si>
+    <t>9/5</t>
+  </si>
+  <si>
+    <t>9/6</t>
+  </si>
+  <si>
+    <t>9/7</t>
+  </si>
+  <si>
+    <t>9/8</t>
+  </si>
+  <si>
+    <t>9/9</t>
+  </si>
+  <si>
+    <t>9/10</t>
+  </si>
+  <si>
+    <t>10/1</t>
+  </si>
+  <si>
+    <t>10/2</t>
+  </si>
+  <si>
+    <t>10/3</t>
+  </si>
+  <si>
+    <t>10/4</t>
+  </si>
+  <si>
+    <t>10/5</t>
+  </si>
+  <si>
+    <t>10/6</t>
+  </si>
+  <si>
+    <t>10/7</t>
+  </si>
+  <si>
+    <t>10/8</t>
+  </si>
+  <si>
+    <t>10/9</t>
+  </si>
+  <si>
+    <t>10/10</t>
   </si>
   <si>
     <t>20/1</t>
@@ -213,10 +816,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,21 +1128,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,284 +1155,1852 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>15377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>18233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>22037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>25065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>30467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>32274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>37354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>72673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>181609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>41966</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
-        <v>35039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
-        <v>37393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5">
-        <v>35012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
-        <v>33910</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
-        <v>35762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8">
-        <v>34254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9">
-        <v>34106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10">
-        <v>34375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11">
-        <v>34794</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44">
+        <v>7741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
-        <v>96001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45">
+        <v>7857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13">
-        <v>90204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14">
-        <v>89397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15">
-        <v>87202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16">
-        <v>86452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17">
-        <v>83834</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18">
-        <v>84872</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19">
-        <v>86780</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20">
-        <v>86700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21">
-        <v>90425</v>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54">
+        <v>9549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56">
+        <v>8635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57">
+        <v>8191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59">
+        <v>7849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61">
+        <v>8648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62">
+        <v>9391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63">
+        <v>8483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64">
+        <v>12901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65">
+        <v>10878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68">
+        <v>10391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69">
+        <v>10473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70">
+        <v>10122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71">
+        <v>10309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73">
+        <v>10274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74">
+        <v>14166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75">
+        <v>13899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76">
+        <v>10707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77">
+        <v>12113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79">
+        <v>10509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80">
+        <v>11598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81">
+        <v>11046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82">
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83">
+        <v>11079</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84">
+        <v>15304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85">
+        <v>14070</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87">
+        <v>14694</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88">
+        <v>12611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89">
+        <v>12087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92">
+        <v>11886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93">
+        <v>12368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94">
+        <v>16155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95">
+        <v>13595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96">
+        <v>13799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97">
+        <v>14377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98">
+        <v>13872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99">
+        <v>15213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100">
+        <v>13868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101">
+        <v>13640</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102">
+        <v>13823</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103">
+        <v>13653</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104">
+        <v>18996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105">
+        <v>15668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106">
+        <v>16175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107">
+        <v>15691</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108">
+        <v>14911</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110">
+        <v>15364</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111">
+        <v>15082</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112">
+        <v>15096</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113">
+        <v>14512</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114">
+        <v>32461</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" t="s">
+        <v>227</v>
+      </c>
+      <c r="D115">
+        <v>29968</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" t="s">
+        <v>229</v>
+      </c>
+      <c r="D117">
+        <v>29282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118">
+        <v>29056</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119">
+        <v>29197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120">
+        <v>27856</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121">
+        <v>27999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>234</v>
+      </c>
+      <c r="D122">
+        <v>27367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>235</v>
+      </c>
+      <c r="D123">
+        <v>27227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124">
+        <v>74748</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>237</v>
+      </c>
+      <c r="D125">
+        <v>75158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>238</v>
+      </c>
+      <c r="D126">
+        <v>72228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>239</v>
+      </c>
+      <c r="D127">
+        <v>69377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128">
+        <v>72745</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129">
+        <v>69454</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" t="s">
+        <v>242</v>
+      </c>
+      <c r="D130">
+        <v>69947</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131">
+        <v>70089</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" t="s">
+        <v>244</v>
+      </c>
+      <c r="D132">
+        <v>68934</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" t="s">
+        <v>245</v>
+      </c>
+      <c r="D133">
+        <v>69714</v>
       </c>
     </row>
   </sheetData>
